--- a/VersionRecords/Version 5.1.0.3 20161115/版本Bug和特性计划及评审表v5.1.0.3.xlsx
+++ b/VersionRecords/Version 5.1.0.3 20161115/版本Bug和特性计划及评审表v5.1.0.3.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t>No</t>
   </si>
@@ -88,13 +88,287 @@
   <si>
     <t>重要程度</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC添加小区报错</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bugfix</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丁组</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复租客用短信验证码登录无法进行蘑菇宝还款的问题</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪林强</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客PC适配mogoroom和mgzf两种域名调整</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>新特性</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterpc</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪林强</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>子账号收不到确认租约消息</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <rPh sb="0" eb="1">
+      <t>sh</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔斌</t>
+    <rPh sb="0" eb="1">
+      <t>c'b</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷豹组</t>
+    <rPh sb="0" eb="1">
+      <t>j'b'z</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <rPh sb="0" eb="1">
+      <t>s'c</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC审核租约偶发重复提交</t>
+    <rPh sb="0" eb="1">
+      <t>fang'dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shen'h</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zu'y</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ou'f</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chong'fu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ti'jiao</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerpc</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>王辉</t>
+    <rPh sb="0" eb="1">
+      <t>wang'hui</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>有个别百度API返回地铁数据格式错误，不是标准格式，
+添加更详细的校验。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <rPh sb="0" eb="1">
+      <t>fang'dong</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩</t>
+    <rPh sb="0" eb="1">
+      <t>y'b'q</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
+    <rPh sb="0" eb="1">
+      <t>jie'bao'z</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -163,8 +437,29 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,6 +476,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -282,7 +583,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -390,6 +691,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -773,7 +1083,7 @@
   <dimension ref="A1:V190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:U2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -867,148 +1177,340 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="14"/>
+    <row r="2" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="14">
+        <v>42689</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="14">
+        <v>42689</v>
+      </c>
       <c r="K2" s="12"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="14"/>
+      <c r="L2" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="14">
+        <v>42689</v>
+      </c>
       <c r="Q2" s="23"/>
-      <c r="R2" s="24"/>
+      <c r="R2" s="24">
+        <v>4999</v>
+      </c>
       <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
+      <c r="T2" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="U2" s="23"/>
       <c r="V2" s="30"/>
     </row>
-    <row r="3" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="14"/>
+    <row r="3" spans="1:22" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="14">
+        <v>42689</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="14">
+        <v>42689</v>
+      </c>
       <c r="K3" s="12"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
+      <c r="L3" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="14">
+        <v>42689</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="24">
+        <v>5012</v>
+      </c>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
       <c r="U3" s="31"/>
       <c r="V3" s="32"/>
     </row>
-    <row r="4" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="14"/>
+    <row r="4" spans="1:22" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="14">
+        <v>42689</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="14">
+        <v>42689</v>
+      </c>
       <c r="K4" s="12"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="23"/>
+      <c r="L4" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="12"/>
       <c r="O4" s="23"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="23"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
       <c r="U4" s="31"/>
       <c r="V4" s="32"/>
     </row>
     <row r="5" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="14"/>
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="14">
+        <v>42689</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="14">
+        <v>42689</v>
+      </c>
       <c r="K5" s="12"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
+      <c r="L5" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" s="37">
+        <v>42689</v>
+      </c>
+      <c r="Q5" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" s="26">
+        <v>4521</v>
+      </c>
+      <c r="S5" s="26"/>
+      <c r="T5" s="24"/>
       <c r="U5" s="31"/>
       <c r="V5" s="32"/>
     </row>
     <row r="6" spans="1:22" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="33"/>
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="14">
+        <v>42689</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="14">
+        <v>42689</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="37">
+        <v>42689</v>
+      </c>
+      <c r="Q6" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" s="24">
+        <v>4998</v>
+      </c>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="31"/>
       <c r="V6" s="34"/>
     </row>
-    <row r="7" spans="1:22" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="33"/>
+    <row r="7" spans="1:22" s="5" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="37">
+        <v>42689</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="37">
+        <v>42689</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" s="37">
+        <v>42689</v>
+      </c>
+      <c r="Q7" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="31"/>
       <c r="V7" s="34"/>
     </row>
     <row r="8" spans="1:22" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
